--- a/data/sample2.xlsx
+++ b/data/sample2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tak/Documents/git/Excel-Extraction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19161955-4EB4-394E-847E-EC0C791ED963}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAE11EC-6FD9-5D43-884F-982C8BCDE85E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="27220" windowHeight="17040" activeTab="2" xr2:uid="{0F152F0D-EDFF-5F4C-88A3-5A9A33673539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="27220" windowHeight="17040" activeTab="3" xr2:uid="{0F152F0D-EDFF-5F4C-88A3-5A9A33673539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24,6 +25,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>&amp; &amp; &lt;&gt;</t>
+  </si>
+  <si>
+    <t>A
+B
+C</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,9 +86,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43A811E-681B-8F4D-AE54-10F2579543BA}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -521,4 +538,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9323401D-B6CE-ED4E-86F0-7A5E5E7618ED}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>